--- a/target/classes/static/答题人上传数据模板.xlsx
+++ b/target/classes/static/答题人上传数据模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGNY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kt\Desktop\code\AI\answerQuestionnaire\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BBD61C-0CEE-451B-911B-3B964DFF930F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D46DAFA-E753-418A-8FAA-FF6939D824E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F2" s="1"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
